--- a/database/industries/madani/shamla/official/quarterly.xlsx
+++ b/database/industries/madani/shamla/official/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\chemical\shamla\official\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\madani\shamla\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D3A368-B0EB-41FF-9A78-0BC250CD9B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD299E97-DEE7-4C3B-9882-4FEEACB4C001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,30 @@
     <t>هزینه های عمومی و اداری</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -62,6 +86,12 @@
   </si>
   <si>
     <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/06</t>
   </si>
   <si>
     <t>هزینه حمل و نقل و انتقال</t>
@@ -553,16 +583,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N31"/>
+  <dimension ref="B1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="24" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -576,8 +606,18 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -593,8 +633,18 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -610,8 +660,18 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -625,8 +685,18 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="2:24" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -642,8 +712,18 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="2:24" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -659,8 +739,18 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -674,8 +764,18 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -711,8 +811,38 @@
       <c r="N8" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -726,10 +856,20 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -763,10 +903,40 @@
       <c r="N10" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0</v>
+      </c>
+      <c r="S10" s="9">
+        <v>0</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0</v>
+      </c>
+      <c r="V10" s="9">
+        <v>0</v>
+      </c>
+      <c r="W10" s="9">
+        <v>0</v>
+      </c>
+      <c r="X10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -800,10 +970,40 @@
       <c r="N11" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O11" s="11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>0</v>
+      </c>
+      <c r="R11" s="11">
+        <v>0</v>
+      </c>
+      <c r="S11" s="11">
+        <v>0</v>
+      </c>
+      <c r="T11" s="11">
+        <v>0</v>
+      </c>
+      <c r="U11" s="11">
+        <v>0</v>
+      </c>
+      <c r="V11" s="11">
+        <v>0</v>
+      </c>
+      <c r="W11" s="11">
+        <v>0</v>
+      </c>
+      <c r="X11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -837,47 +1037,107 @@
       <c r="N12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O12" s="9">
+        <v>0</v>
+      </c>
+      <c r="P12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0</v>
+      </c>
+      <c r="R12" s="9">
+        <v>0</v>
+      </c>
+      <c r="S12" s="9">
+        <v>0</v>
+      </c>
+      <c r="T12" s="9">
+        <v>0</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0</v>
+      </c>
+      <c r="V12" s="9">
+        <v>0</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0</v>
+      </c>
+      <c r="X12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>597</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1973</v>
+      </c>
+      <c r="G13" s="11">
+        <v>356</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1571</v>
+      </c>
+      <c r="I13" s="11">
+        <v>3408</v>
+      </c>
+      <c r="J13" s="11">
+        <v>15038</v>
+      </c>
+      <c r="K13" s="11">
+        <v>3415</v>
+      </c>
+      <c r="L13" s="11">
+        <v>3313</v>
+      </c>
+      <c r="M13" s="11">
         <v>-1273</v>
       </c>
-      <c r="F13" s="11">
+      <c r="N13" s="11">
         <v>14614</v>
       </c>
-      <c r="G13" s="11">
+      <c r="O13" s="11">
         <v>1219</v>
       </c>
-      <c r="H13" s="11">
+      <c r="P13" s="11">
         <v>4617</v>
       </c>
-      <c r="I13" s="11">
+      <c r="Q13" s="11">
         <v>-1143</v>
       </c>
-      <c r="J13" s="11">
+      <c r="R13" s="11">
         <v>17440</v>
       </c>
-      <c r="K13" s="11">
+      <c r="S13" s="11">
         <v>5293</v>
       </c>
-      <c r="L13" s="11">
+      <c r="T13" s="11">
         <v>5193</v>
       </c>
-      <c r="M13" s="11">
+      <c r="U13" s="11">
         <v>1172</v>
       </c>
-      <c r="N13" s="11">
+      <c r="V13" s="11">
         <v>30500</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W13" s="11">
+        <v>4675</v>
+      </c>
+      <c r="X13" s="11">
+        <v>17618</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -911,121 +1171,241 @@
       <c r="N14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0</v>
+      </c>
+      <c r="S14" s="9">
+        <v>0</v>
+      </c>
+      <c r="T14" s="9">
+        <v>0</v>
+      </c>
+      <c r="U14" s="9">
+        <v>0</v>
+      </c>
+      <c r="V14" s="9">
+        <v>0</v>
+      </c>
+      <c r="W14" s="9">
+        <v>0</v>
+      </c>
+      <c r="X14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
+        <v>359</v>
+      </c>
+      <c r="F15" s="11">
+        <v>231</v>
+      </c>
+      <c r="G15" s="11">
+        <v>194</v>
+      </c>
+      <c r="H15" s="11">
+        <v>730</v>
+      </c>
+      <c r="I15" s="11">
+        <v>251</v>
+      </c>
+      <c r="J15" s="11">
+        <v>377</v>
+      </c>
+      <c r="K15" s="11">
+        <v>128</v>
+      </c>
+      <c r="L15" s="11">
+        <v>969</v>
+      </c>
+      <c r="M15" s="11">
         <v>141</v>
       </c>
-      <c r="F15" s="11">
+      <c r="N15" s="11">
         <v>462</v>
       </c>
-      <c r="G15" s="11">
+      <c r="O15" s="11">
         <v>549</v>
       </c>
-      <c r="H15" s="11">
+      <c r="P15" s="11">
         <v>1882</v>
       </c>
-      <c r="I15" s="11">
+      <c r="Q15" s="11">
         <v>755</v>
       </c>
-      <c r="J15" s="11">
+      <c r="R15" s="11">
         <v>1287</v>
       </c>
-      <c r="K15" s="11">
+      <c r="S15" s="11">
         <v>821</v>
       </c>
-      <c r="L15" s="11">
+      <c r="T15" s="11">
         <v>2055</v>
       </c>
-      <c r="M15" s="11">
+      <c r="U15" s="11">
         <v>787</v>
       </c>
-      <c r="N15" s="11">
+      <c r="V15" s="11">
         <v>1540</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W15" s="11">
+        <v>1122</v>
+      </c>
+      <c r="X15" s="11">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>786</v>
+      </c>
+      <c r="F16" s="9">
+        <v>879</v>
+      </c>
+      <c r="G16" s="9">
+        <v>803</v>
+      </c>
+      <c r="H16" s="9">
+        <v>885</v>
+      </c>
+      <c r="I16" s="9">
+        <v>816</v>
+      </c>
+      <c r="J16" s="9">
+        <v>-95</v>
+      </c>
+      <c r="K16" s="9">
+        <v>972</v>
+      </c>
+      <c r="L16" s="9">
+        <v>102</v>
+      </c>
+      <c r="M16" s="9">
         <v>915</v>
       </c>
-      <c r="F16" s="9">
+      <c r="N16" s="9">
         <v>1131</v>
       </c>
-      <c r="G16" s="9">
+      <c r="O16" s="9">
         <v>1252</v>
       </c>
-      <c r="H16" s="9">
+      <c r="P16" s="9">
         <v>1414</v>
       </c>
-      <c r="I16" s="9">
+      <c r="Q16" s="9">
         <v>1470</v>
       </c>
-      <c r="J16" s="9">
+      <c r="R16" s="9">
         <v>2927</v>
       </c>
-      <c r="K16" s="9">
+      <c r="S16" s="9">
         <v>2610</v>
       </c>
-      <c r="L16" s="9">
+      <c r="T16" s="9">
         <v>3299</v>
       </c>
-      <c r="M16" s="9">
+      <c r="U16" s="9">
         <v>3120</v>
       </c>
-      <c r="N16" s="9">
+      <c r="V16" s="9">
         <v>3010</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W16" s="9">
+        <v>3530</v>
+      </c>
+      <c r="X16" s="9">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
+        <v>8930</v>
+      </c>
+      <c r="F17" s="11">
+        <v>16902</v>
+      </c>
+      <c r="G17" s="11">
+        <v>16971</v>
+      </c>
+      <c r="H17" s="11">
+        <v>14510</v>
+      </c>
+      <c r="I17" s="11">
+        <v>8954</v>
+      </c>
+      <c r="J17" s="11">
+        <v>11002</v>
+      </c>
+      <c r="K17" s="11">
+        <v>16949</v>
+      </c>
+      <c r="L17" s="11">
+        <v>23550</v>
+      </c>
+      <c r="M17" s="11">
         <v>21030</v>
       </c>
-      <c r="F17" s="11">
+      <c r="N17" s="11">
         <v>17971</v>
       </c>
-      <c r="G17" s="11">
+      <c r="O17" s="11">
         <v>39805</v>
       </c>
-      <c r="H17" s="11">
+      <c r="P17" s="11">
         <v>28875</v>
       </c>
-      <c r="I17" s="11">
+      <c r="Q17" s="11">
         <v>35537</v>
       </c>
-      <c r="J17" s="11">
+      <c r="R17" s="11">
         <v>52168</v>
       </c>
-      <c r="K17" s="11">
+      <c r="S17" s="11">
         <v>52911</v>
       </c>
-      <c r="L17" s="11">
+      <c r="T17" s="11">
         <v>49442</v>
       </c>
-      <c r="M17" s="11">
+      <c r="U17" s="11">
         <v>56503</v>
       </c>
-      <c r="N17" s="11">
+      <c r="V17" s="11">
         <v>39929</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W17" s="11">
+        <v>61454</v>
+      </c>
+      <c r="X17" s="11">
+        <v>58680</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1059,82 +1439,172 @@
       <c r="N18" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O18" s="9">
+        <v>0</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0</v>
+      </c>
+      <c r="U18" s="9">
+        <v>0</v>
+      </c>
+      <c r="V18" s="9">
+        <v>0</v>
+      </c>
+      <c r="W18" s="9">
+        <v>0</v>
+      </c>
+      <c r="X18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
+        <v>7636</v>
+      </c>
+      <c r="F19" s="11">
+        <v>6776</v>
+      </c>
+      <c r="G19" s="11">
+        <v>8986</v>
+      </c>
+      <c r="H19" s="11">
+        <v>8015</v>
+      </c>
+      <c r="I19" s="11">
+        <v>4690</v>
+      </c>
+      <c r="J19" s="11">
+        <v>16095</v>
+      </c>
+      <c r="K19" s="11">
+        <v>3502</v>
+      </c>
+      <c r="L19" s="11">
+        <v>7990</v>
+      </c>
+      <c r="M19" s="11">
         <v>6301</v>
       </c>
-      <c r="F19" s="11">
+      <c r="N19" s="11">
         <v>11189</v>
       </c>
-      <c r="G19" s="11">
+      <c r="O19" s="11">
         <v>5587</v>
       </c>
-      <c r="H19" s="11">
+      <c r="P19" s="11">
         <v>9848</v>
       </c>
-      <c r="I19" s="11">
+      <c r="Q19" s="11">
         <v>6299</v>
       </c>
-      <c r="J19" s="11">
+      <c r="R19" s="11">
         <v>12128</v>
       </c>
-      <c r="K19" s="11">
+      <c r="S19" s="11">
         <v>790</v>
       </c>
-      <c r="L19" s="11">
+      <c r="T19" s="11">
         <v>16981</v>
       </c>
-      <c r="M19" s="11">
+      <c r="U19" s="11">
         <v>7390</v>
       </c>
-      <c r="N19" s="11">
+      <c r="V19" s="11">
         <v>19996</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W19" s="11">
+        <v>13776</v>
+      </c>
+      <c r="X19" s="11">
+        <v>12228</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
+        <v>18308</v>
+      </c>
+      <c r="F20" s="13">
+        <v>26761</v>
+      </c>
+      <c r="G20" s="13">
+        <v>27310</v>
+      </c>
+      <c r="H20" s="13">
+        <v>25711</v>
+      </c>
+      <c r="I20" s="13">
+        <v>18119</v>
+      </c>
+      <c r="J20" s="13">
+        <v>42417</v>
+      </c>
+      <c r="K20" s="13">
+        <v>24966</v>
+      </c>
+      <c r="L20" s="13">
+        <v>35924</v>
+      </c>
+      <c r="M20" s="13">
         <v>27114</v>
       </c>
-      <c r="F20" s="13">
+      <c r="N20" s="13">
         <v>45367</v>
       </c>
-      <c r="G20" s="13">
+      <c r="O20" s="13">
         <v>48412</v>
       </c>
-      <c r="H20" s="13">
+      <c r="P20" s="13">
         <v>46636</v>
       </c>
-      <c r="I20" s="13">
+      <c r="Q20" s="13">
         <v>42918</v>
       </c>
-      <c r="J20" s="13">
+      <c r="R20" s="13">
         <v>85950</v>
       </c>
-      <c r="K20" s="13">
+      <c r="S20" s="13">
         <v>62425</v>
       </c>
-      <c r="L20" s="13">
+      <c r="T20" s="13">
         <v>76970</v>
       </c>
-      <c r="M20" s="13">
+      <c r="U20" s="13">
         <v>68972</v>
       </c>
-      <c r="N20" s="13">
+      <c r="V20" s="13">
         <v>94975</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W20" s="13">
+        <v>84557</v>
+      </c>
+      <c r="X20" s="13">
+        <v>95186</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1148,8 +1618,18 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1163,8 +1643,18 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1178,10 +1668,20 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1215,8 +1715,38 @@
       <c r="N24" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X24" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1230,82 +1760,152 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F26" s="9">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="G26" s="9">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="H26" s="9">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="J26" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K26" s="9">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="L26" s="9">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M26" s="9">
         <v>54</v>
       </c>
       <c r="N26" s="9">
+        <v>48</v>
+      </c>
+      <c r="O26" s="9">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P26" s="9">
+        <v>56</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>52</v>
+      </c>
+      <c r="R26" s="9">
+        <v>52</v>
+      </c>
+      <c r="S26" s="9">
+        <v>52</v>
+      </c>
+      <c r="T26" s="9">
+        <v>53</v>
+      </c>
+      <c r="U26" s="9">
+        <v>54</v>
+      </c>
+      <c r="V26" s="9">
+        <v>56</v>
+      </c>
+      <c r="W26" s="9">
+        <v>54</v>
+      </c>
+      <c r="X26" s="9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
+        <v>320</v>
+      </c>
+      <c r="F27" s="11">
+        <v>279</v>
+      </c>
+      <c r="G27" s="11">
+        <v>312</v>
+      </c>
+      <c r="H27" s="11">
+        <v>313</v>
+      </c>
+      <c r="I27" s="11">
+        <v>276</v>
+      </c>
+      <c r="J27" s="11">
+        <v>299</v>
+      </c>
+      <c r="K27" s="11">
+        <v>281</v>
+      </c>
+      <c r="L27" s="11">
+        <v>285</v>
+      </c>
+      <c r="M27" s="11">
         <v>292</v>
-      </c>
-      <c r="F27" s="11">
-        <v>306</v>
-      </c>
-      <c r="G27" s="11">
-        <v>298</v>
-      </c>
-      <c r="H27" s="11">
-        <v>288</v>
-      </c>
-      <c r="I27" s="11">
-        <v>323</v>
-      </c>
-      <c r="J27" s="11">
-        <v>316</v>
-      </c>
-      <c r="K27" s="11">
-        <v>318</v>
-      </c>
-      <c r="L27" s="11">
-        <v>312</v>
-      </c>
-      <c r="M27" s="11">
-        <v>313</v>
       </c>
       <c r="N27" s="11">
         <v>306</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O27" s="11">
+        <v>298</v>
+      </c>
+      <c r="P27" s="11">
+        <v>288</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>323</v>
+      </c>
+      <c r="R27" s="11">
+        <v>316</v>
+      </c>
+      <c r="S27" s="11">
+        <v>318</v>
+      </c>
+      <c r="T27" s="11">
+        <v>312</v>
+      </c>
+      <c r="U27" s="11">
+        <v>313</v>
+      </c>
+      <c r="V27" s="11">
+        <v>306</v>
+      </c>
+      <c r="W27" s="11">
+        <v>299</v>
+      </c>
+      <c r="X27" s="11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1319,8 +1919,18 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1334,8 +1944,18 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1349,8 +1969,18 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1364,6 +1994,16 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
